--- a/Work/0908/INFO.xlsx
+++ b/Work/0908/INFO.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Desktop\PV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Desktop\Git\Work\0908\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC1CEEC-40FB-4B46-8A77-205C359A387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92279585-E827-4955-AFA1-CD64109746CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D72F9FF4-5E15-4951-96BE-ADF41DA7590D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{D72F9FF4-5E15-4951-96BE-ADF41DA7590D}"/>
   </bookViews>
   <sheets>
     <sheet name="위험률" sheetId="2" r:id="rId1"/>
     <sheet name="정리" sheetId="4" r:id="rId2"/>
     <sheet name="코드" sheetId="1" r:id="rId3"/>
     <sheet name="사업비" sheetId="3" r:id="rId4"/>
+    <sheet name="결합위험률" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="122">
   <si>
     <t>담보코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +468,107 @@
     <t>Q2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>결합위험률키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CombRiskKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskKey(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskName(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskKey(2)</t>
+  </si>
+  <si>
+    <t>RiskName(2)</t>
+  </si>
+  <si>
+    <t>RiskKey(3)</t>
+  </si>
+  <si>
+    <t>RiskName(3)</t>
+  </si>
+  <si>
+    <t>RiskKey(4)</t>
+  </si>
+  <si>
+    <t>RiskName(4)</t>
+  </si>
+  <si>
+    <t>RiskKey(5)</t>
+  </si>
+  <si>
+    <t>RiskName(5)</t>
+  </si>
+  <si>
+    <t>RiskKey(6)</t>
+  </si>
+  <si>
+    <t>RiskName(6)</t>
+  </si>
+  <si>
+    <t>RiskKey(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskName(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskKey(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskName(9)</t>
+  </si>
+  <si>
+    <t>Test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qx1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qx2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qx3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결합위험률 Operation 컬럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q1+q2+q3+…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q1+q2 - q1*q2/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -475,7 +577,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,8 +680,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,8 +786,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -857,6 +979,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -866,7 +1008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,12 +1162,816 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="94">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1376,439 +2322,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="3"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color auto="1"/>
@@ -1829,58 +2342,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2089,20 +2550,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24378D01-3141-4348-8298-9FDECCE7DB20}" name="Tab위험률" displayName="Tab위험률" ref="A2:J492" totalsRowShown="0" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24378D01-3141-4348-8298-9FDECCE7DB20}" name="Tab위험률" displayName="Tab위험률" ref="A2:J492" totalsRowShown="0" dataDxfId="93">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{79DC565B-F670-448E-9F1B-EFE992ABE84E}" name="RiskKey" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{15DA932D-3838-40A5-911F-CBD2D6947FEA}" name="RiskCode" dataDxfId="66">
+    <tableColumn id="1" xr3:uid="{79DC565B-F670-448E-9F1B-EFE992ABE84E}" name="RiskKey" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{15DA932D-3838-40A5-911F-CBD2D6947FEA}" name="RiskCode" dataDxfId="91">
       <calculatedColumnFormula>Tab위험률[[#This Row],[RiskKey]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DA6914E6-B21C-4F4B-AB72-9CB6FEE80C9E}" name="Sub1" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{47456C7F-62F8-46A1-9485-558477F168AF}" name="Sub2" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{D7DF4E90-3243-45C8-BDC1-4A86102794D9}" name="Sub3" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{3B221D88-8DAD-4A18-B016-ACF904742DCD}" name="Sub4" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{1E320AA1-780F-4AB0-9A5A-874ABBFB37EB}" name="x" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{042CC5F0-DA20-4695-8724-64D9E5EAC4B4}" name="Male" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{24DCDC70-961C-4BA5-808D-6764762416F6}" name="Female" dataDxfId="59"/>
-    <tableColumn id="10" xr3:uid="{68ED30EC-1A85-4C0F-839D-6EE2337E86DE}" name="Info" dataDxfId="58">
+    <tableColumn id="3" xr3:uid="{DA6914E6-B21C-4F4B-AB72-9CB6FEE80C9E}" name="Sub1" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{47456C7F-62F8-46A1-9485-558477F168AF}" name="Sub2" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{D7DF4E90-3243-45C8-BDC1-4A86102794D9}" name="Sub3" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{3B221D88-8DAD-4A18-B016-ACF904742DCD}" name="Sub4" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{1E320AA1-780F-4AB0-9A5A-874ABBFB37EB}" name="x" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{042CC5F0-DA20-4695-8724-64D9E5EAC4B4}" name="Male" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{24DCDC70-961C-4BA5-808D-6764762416F6}" name="Female" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{68ED30EC-1A85-4C0F-839D-6EE2337E86DE}" name="Info" dataDxfId="83">
       <calculatedColumnFormula>VLOOKUP(Tab위험률[[#This Row],[RiskKey]], Tab위험률키[], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2111,89 +2572,132 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0790906-635B-4B8B-8391-42DD6D7B01E7}" name="Tab위험률키" displayName="Tab위험률키" ref="A3:B10" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0790906-635B-4B8B-8391-42DD6D7B01E7}" name="Tab위험률키" displayName="Tab위험률키" ref="A3:B10" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A3:B10" xr:uid="{F0790906-635B-4B8B-8391-42DD6D7B01E7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BE1909E9-8DFD-4D5C-9AE8-894B190CC65B}" name="위험률키" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{6806F0D6-89B6-4DC9-8BF7-B8EE912C6260}" name="위험률명" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{BE1909E9-8DFD-4D5C-9AE8-894B190CC65B}" name="위험률키" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{6806F0D6-89B6-4DC9-8BF7-B8EE912C6260}" name="위험률명" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{26ED1592-581B-4D23-B1C9-A99D1CC11BD0}" name="Tab담보코드" displayName="Tab담보코드" ref="F3:G4" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{26ED1592-581B-4D23-B1C9-A99D1CC11BD0}" name="Tab담보코드" displayName="Tab담보코드" ref="F3:G4" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="F3:G4" xr:uid="{26ED1592-581B-4D23-B1C9-A99D1CC11BD0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B35749A2-8DA0-4E88-9898-D00E5F91F5B3}" name="담보코드" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{2C11D655-D252-4800-8FB4-7334449CF047}" name="담보명" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{B35749A2-8DA0-4E88-9898-D00E5F91F5B3}" name="담보코드" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{2C11D655-D252-4800-8FB4-7334449CF047}" name="담보명" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B7F1F5D0-4DE6-4E72-AC93-F6658C48A1EB}" name="Tab코드" displayName="Tab코드" ref="A2:S81" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B7F1F5D0-4DE6-4E72-AC93-F6658C48A1EB}" name="Tab코드" displayName="Tab코드" ref="A2:S81" totalsRowShown="0" headerRowDxfId="22" dataDxfId="23" headerRowBorderDxfId="43" tableBorderDxfId="74" totalsRowBorderDxfId="73">
   <autoFilter ref="A2:S81" xr:uid="{B7F1F5D0-4DE6-4E72-AC93-F6658C48A1EB}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{9D22FCD4-1A06-4FE5-8CB0-A8B9FBA821EC}" name="담보코드" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{A71590DE-337B-416C-8A61-571877B6B71D}" name="담보명" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{58684E5D-85D6-412C-B5B6-D2AB0E24A736}" name="sub1" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{39401272-EF91-45F8-897C-F82F47CA11F8}" name="sub2" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{AB30D454-AEEE-4431-8229-B4D94C7090FE}" name="sub3" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{94157587-749D-444D-A28E-485FF6A3746D}" name="sub4" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{4FBB6494-B6DD-4572-826B-1F9198D31338}" name="KEY" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{1255C87A-758E-48FF-85C7-18D04589A5CF}" name="BenefitNum" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{B4236CFF-42DE-4399-86A3-762E3F73E7EF}" name="ExitCode" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{7D8FF776-0077-4A00-9069-0568F1848C62}" name="급부탈퇴율명" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{9D22FCD4-1A06-4FE5-8CB0-A8B9FBA821EC}" name="담보코드" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{A71590DE-337B-416C-8A61-571877B6B71D}" name="담보명" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{58684E5D-85D6-412C-B5B6-D2AB0E24A736}" name="sub1" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{39401272-EF91-45F8-897C-F82F47CA11F8}" name="sub2" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{AB30D454-AEEE-4431-8229-B4D94C7090FE}" name="sub3" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{94157587-749D-444D-A28E-485FF6A3746D}" name="sub4" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{4FBB6494-B6DD-4572-826B-1F9198D31338}" name="KEY" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{1255C87A-758E-48FF-85C7-18D04589A5CF}" name="BenefitNum" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{B4236CFF-42DE-4399-86A3-762E3F73E7EF}" name="ExitCode" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{7D8FF776-0077-4A00-9069-0568F1848C62}" name="급부탈퇴율명" dataDxfId="33">
       <calculatedColumnFormula>IF(I3&lt;&gt;"",VLOOKUP(I3,Tab위험률키[],2,FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{64BC1760-448F-40E8-8108-78C6BDAB135D}" name="NonCov" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{D45BC053-AD35-4C05-80D0-BAEC2E23EEF5}" name="BenefitCode" dataDxfId="33"/>
-    <tableColumn id="13" xr3:uid="{44FAB8E2-26CC-4384-9C4B-2014BE7E2D88}" name="급부지급률명" dataDxfId="32">
+    <tableColumn id="11" xr3:uid="{64BC1760-448F-40E8-8108-78C6BDAB135D}" name="NonCov" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{D45BC053-AD35-4C05-80D0-BAEC2E23EEF5}" name="BenefitCode" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{44FAB8E2-26CC-4384-9C4B-2014BE7E2D88}" name="급부지급률명" dataDxfId="30">
       <calculatedColumnFormula>IF(L3&lt;&gt;"",VLOOKUP(L3,Tab위험률키[],2,FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F83A889D-725C-46C7-A44D-81751E196ACA}" name="DefryRate" dataDxfId="31"/>
-    <tableColumn id="15" xr3:uid="{5E4B306F-A81B-4B62-B505-2241F618CD01}" name="ReducRate" dataDxfId="30"/>
-    <tableColumn id="16" xr3:uid="{2092426A-FD7D-41EF-922C-9B3EE7C8AC7A}" name="ReducPeriod" dataDxfId="29"/>
-    <tableColumn id="17" xr3:uid="{76CBBE03-1ADF-4CA3-9436-F546C42FA9E5}" name="GrantCode" dataDxfId="28"/>
-    <tableColumn id="18" xr3:uid="{1C60DEE9-23CC-4A72-85E0-52E007CA5F43}" name="납입면제율명" dataDxfId="27">
+    <tableColumn id="14" xr3:uid="{F83A889D-725C-46C7-A44D-81751E196ACA}" name="DefryRate" dataDxfId="29"/>
+    <tableColumn id="15" xr3:uid="{5E4B306F-A81B-4B62-B505-2241F618CD01}" name="ReducRate" dataDxfId="28"/>
+    <tableColumn id="16" xr3:uid="{2092426A-FD7D-41EF-922C-9B3EE7C8AC7A}" name="ReducPeriod" dataDxfId="27"/>
+    <tableColumn id="17" xr3:uid="{76CBBE03-1ADF-4CA3-9436-F546C42FA9E5}" name="GrantCode" dataDxfId="26"/>
+    <tableColumn id="18" xr3:uid="{1C60DEE9-23CC-4A72-85E0-52E007CA5F43}" name="납입면제율명" dataDxfId="25">
       <calculatedColumnFormula>IF(Q3&lt;&gt;"",VLOOKUP(Q3,Tab위험률키[],2,FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{5B264164-6478-4961-9DD5-857114D72711}" name="InvalidPeriod" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{5B264164-6478-4961-9DD5-857114D72711}" name="InvalidPeriod" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DBF9398-8926-4F6B-AF2B-8C06048DEFA9}" name="Tab사업비" displayName="Tab사업비" ref="A2:V22" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DBF9398-8926-4F6B-AF2B-8C06048DEFA9}" name="Tab사업비" displayName="Tab사업비" ref="A2:V22" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
   <autoFilter ref="A2:V22" xr:uid="{7DBF9398-8926-4F6B-AF2B-8C06048DEFA9}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{13148596-B31F-4E58-9A4C-E4D148F8481A}" name="담보코드" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{785FCDAF-C943-448E-9DFC-AD6447DBFCE0}" name="담보명" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{13148596-B31F-4E58-9A4C-E4D148F8481A}" name="담보코드" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{785FCDAF-C943-448E-9DFC-AD6447DBFCE0}" name="담보명" dataDxfId="67">
       <calculatedColumnFormula>VLOOKUP(Tab사업비[[#This Row],[담보코드]], Tab담보코드[], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{416E59A0-4153-460D-B13A-22E6FF030CA1}" name="sub1" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{59C4C521-4DC6-4B12-AC38-24443BB9E5E2}" name="sub2" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{3B2AF17D-1C19-4485-B658-E2C0A6A0F8A3}" name="sub3" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{AF47197B-729A-44F4-A1C6-D248D7DB70CA}" name="sub4" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{9E823DA5-4365-4E9B-AF17-F8EC4DEF296A}" name="KEY" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{A703487A-2BAB-475B-A29C-331A1C07932A}" name="sex" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{72659132-FDD4-40C4-BB32-06C382F46CE0}" name="x" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{A891BA19-B38D-43D7-A50F-9AD0B4A4DD60}" name="n" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{A76072EF-9951-4AE0-A367-05C7B0B2FC1D}" name="m" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{DB2AB7BB-DB7D-45C5-8F66-FF34D66B32E1}" name="mPrime" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{72B51E86-4A0C-459D-8E1C-D665E1C68554}" name="AMT" dataDxfId="9" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" xr3:uid="{B982487C-ED23-4C18-BF7D-EB776C9E4A02}" name="S" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{64491889-9E0E-46DE-8104-1F3CE15B6C72}" name="alpha1" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{85103BE9-07BB-4E28-861B-0D8F63E6E8E8}" name="alpha2" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{D82A59A3-11AC-4223-B3F9-6C8E9E2481CC}" name="beta1" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{F1868858-CF48-4CC0-B802-D11CEF998600}" name="beta2" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{04E112AD-18EA-49F5-B0C2-4EF1F4148355}" name="betaPrime" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{50D602DB-B005-47DB-AC55-3673E09B6674}" name="beta5" dataDxfId="2"/>
-    <tableColumn id="21" xr3:uid="{078E1488-49B5-4510-8F85-00598F1CCA4E}" name="ce" dataDxfId="1"/>
-    <tableColumn id="22" xr3:uid="{64751DCD-4790-4491-9BC9-93915602C0D4}" name="gamma" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{416E59A0-4153-460D-B13A-22E6FF030CA1}" name="sub1" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{59C4C521-4DC6-4B12-AC38-24443BB9E5E2}" name="sub2" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{3B2AF17D-1C19-4485-B658-E2C0A6A0F8A3}" name="sub3" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{AF47197B-729A-44F4-A1C6-D248D7DB70CA}" name="sub4" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{9E823DA5-4365-4E9B-AF17-F8EC4DEF296A}" name="KEY" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{A703487A-2BAB-475B-A29C-331A1C07932A}" name="sex" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{72659132-FDD4-40C4-BB32-06C382F46CE0}" name="x" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{A891BA19-B38D-43D7-A50F-9AD0B4A4DD60}" name="n" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{A76072EF-9951-4AE0-A367-05C7B0B2FC1D}" name="m" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{DB2AB7BB-DB7D-45C5-8F66-FF34D66B32E1}" name="mPrime" dataDxfId="57"/>
+    <tableColumn id="13" xr3:uid="{72B51E86-4A0C-459D-8E1C-D665E1C68554}" name="AMT" dataDxfId="56" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" xr3:uid="{B982487C-ED23-4C18-BF7D-EB776C9E4A02}" name="S" dataDxfId="55"/>
+    <tableColumn id="15" xr3:uid="{64491889-9E0E-46DE-8104-1F3CE15B6C72}" name="alpha1" dataDxfId="54"/>
+    <tableColumn id="16" xr3:uid="{85103BE9-07BB-4E28-861B-0D8F63E6E8E8}" name="alpha2" dataDxfId="53"/>
+    <tableColumn id="17" xr3:uid="{D82A59A3-11AC-4223-B3F9-6C8E9E2481CC}" name="beta1" dataDxfId="52"/>
+    <tableColumn id="18" xr3:uid="{F1868858-CF48-4CC0-B802-D11CEF998600}" name="beta2" dataDxfId="51"/>
+    <tableColumn id="19" xr3:uid="{04E112AD-18EA-49F5-B0C2-4EF1F4148355}" name="betaPrime" dataDxfId="50"/>
+    <tableColumn id="20" xr3:uid="{50D602DB-B005-47DB-AC55-3673E09B6674}" name="beta5" dataDxfId="49"/>
+    <tableColumn id="21" xr3:uid="{078E1488-49B5-4510-8F85-00598F1CCA4E}" name="ce" dataDxfId="48"/>
+    <tableColumn id="22" xr3:uid="{64751DCD-4790-4491-9BC9-93915602C0D4}" name="gamma" dataDxfId="47"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2A792D8B-4CF6-4D69-9EA6-F6BE4E9AB453}" name="Tab결합위험률" displayName="Tab결합위험률" ref="A2:R21" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+  <autoFilter ref="A2:R21" xr:uid="{2A792D8B-4CF6-4D69-9EA6-F6BE4E9AB453}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{25EE5C06-7712-458C-A302-DAFF497D3B81}" name="CombRiskKey" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{1A8AC7B3-E7AA-4BEF-8BDE-0B99E9F0D731}" name="Operation" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{1E9C2BA4-AC39-41BC-B97D-08147B1DC114}" name="RiskKey(1)" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{F669CDEF-ECBA-4634-B700-672424864611}" name="RiskName(1)" dataDxfId="7">
+      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{C56E836D-A16F-436B-91FE-698D089FDA08}" name="RiskKey(2)" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{C17EA131-C25D-483C-B3A3-34A5F64D7993}" name="RiskName(2)" dataDxfId="6">
+      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{1701CF4F-BE84-42AE-852C-03FDEC7C52F3}" name="RiskKey(3)" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{3EFB201C-1C78-45CD-8010-A405C6862F03}" name="RiskName(3)" dataDxfId="5">
+      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{B9F8B2E7-EC8D-41BC-A28C-7F390EF63369}" name="RiskKey(4)" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{8765911B-97DF-499F-BF14-73F41DF4B4D1}" name="RiskName(4)" dataDxfId="4">
+      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{F65EE822-96BF-476A-938B-118CE463000F}" name="RiskKey(5)" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{4606DF93-418B-4E5C-AF82-E80E481A1C97}" name="RiskName(5)" dataDxfId="3">
+      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{C1AE485E-5574-42C2-8978-1E59840ABC97}" name="RiskKey(6)" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{7FBC4286-A113-4674-80E0-633ABB302A5D}" name="RiskName(6)" dataDxfId="2">
+      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{EDA98835-0153-4FEC-B870-F1DA40EC2090}" name="RiskKey(7)" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{E3C48232-93D4-4993-B343-F35BB126B092}" name="RiskName(7)" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{4D3E2474-4E19-43A2-8666-BAC9CFD43BDA}" name="RiskKey(8)" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{B70CB1E1-537E-4567-957C-6A7D5F2D5648}" name="RiskName(9)" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13427,11 +13931,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F286D1B7-3E41-40BA-B771-1DA23892E9CE}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -13444,18 +13948,26 @@
     <col min="6" max="6" width="9.796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="8"/>
+    <col min="9" max="9" width="0.8984375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="2.296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.796875" style="1"/>
+    <col min="15" max="16384" width="8.796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="K1" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
@@ -13468,8 +13980,14 @@
       <c r="G3" s="39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="K3" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -13482,16 +14000,28 @@
       <c r="G4" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="K4" s="40">
+        <v>1</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="K5" s="40">
+        <v>2</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -13499,7 +14029,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -13507,7 +14037,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
@@ -13515,7 +14045,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>91</v>
       </c>
@@ -13523,7 +14053,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
@@ -13546,11 +14076,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57D3729-4F1D-4584-B205-3768B4FDBAED}">
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -16263,20 +16793,20 @@
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
       <c r="H81" s="44"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41" t="str">
+      <c r="I81" s="40"/>
+      <c r="J81" s="40" t="str">
         <f>IF(I81&lt;&gt;"",VLOOKUP(I81,Tab위험률키[],2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="K81" s="41"/>
-      <c r="L81" s="41"/>
-      <c r="M81" s="41" t="str">
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40" t="str">
         <f>IF(L81&lt;&gt;"",VLOOKUP(L81,Tab위험률키[],2,FALSE), "")</f>
         <v/>
       </c>
-      <c r="N81" s="41"/>
-      <c r="O81" s="41"/>
-      <c r="P81" s="41"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
       <c r="Q81" s="41"/>
       <c r="R81" s="41" t="str">
         <f>IF(Q81&lt;&gt;"",VLOOKUP(Q81,Tab위험률키[],2,FALSE), "")</f>
@@ -16286,6 +16816,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I3:P81">
+    <cfRule type="expression" dxfId="46" priority="3">
+      <formula>$H3 = 99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:P81">
+    <cfRule type="expression" dxfId="45" priority="2">
+      <formula>$H3=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:S81">
+    <cfRule type="expression" dxfId="44" priority="1">
+      <formula>$H3&lt;&gt;99</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -16302,7 +16847,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:G22"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -16743,4 +17288,792 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCFAF0C-83A8-4523-B323-D537D5C83601}">
+  <dimension ref="A1:S21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="14.296875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.09765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.09765625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.09765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.09765625" style="9" customWidth="1"/>
+    <col min="11" max="14" width="13.09765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="13.09765625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="8.796875" style="9"/>
+    <col min="20" max="16384" width="8.796875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="52" customFormat="1">
+      <c r="A1" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="R2" s="56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J3" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L3" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N3" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P3" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R3" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H4" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J4" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L4" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N4" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P4" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R4" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="D5" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="F5" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H5" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J5" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L5" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N5" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P5" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R5" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="D6" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="F6" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H6" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J6" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L6" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N6" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P6" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R6" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="D7" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="F7" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H7" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J7" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L7" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N7" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P7" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R7" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="D8" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="F8" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H8" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J8" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L8" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N8" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P8" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R8" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="D9" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="F9" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H9" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J9" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L9" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N9" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P9" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R9" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="D10" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="F10" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H10" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J10" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L10" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N10" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P10" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R10" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="D11" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="F11" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H11" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J11" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L11" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N11" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P11" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R11" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="D12" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="F12" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H12" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J12" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L12" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N12" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P12" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R12" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="D13" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="F13" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H13" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J13" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L13" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N13" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P13" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R13" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="D14" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="F14" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H14" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J14" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L14" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N14" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P14" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R14" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="D15" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="F15" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H15" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J15" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L15" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N15" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P15" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R15" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="D16" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="F16" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H16" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J16" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L16" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N16" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P16" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R16" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="4:18">
+      <c r="D17" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="F17" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H17" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J17" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L17" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N17" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P17" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R17" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="4:18">
+      <c r="D18" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="F18" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H18" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J18" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L18" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N18" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P18" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R18" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="4:18">
+      <c r="D19" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="F19" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H19" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J19" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L19" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N19" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P19" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R19" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="4:18">
+      <c r="D20" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="F20" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H20" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J20" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L20" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N20" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P20" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R20" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="4:18">
+      <c r="D21" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="F21" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="H21" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="J21" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="L21" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="N21" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="P21" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="R21" s="57" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Work/0908/INFO.xlsx
+++ b/Work/0908/INFO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Desktop\Git\Work\0908\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92279585-E827-4955-AFA1-CD64109746CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A2B03D-9741-4407-B8D8-C65C8FED6A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{D72F9FF4-5E15-4951-96BE-ADF41DA7590D}"/>
+    <workbookView xWindow="144" yWindow="12" windowWidth="15408" windowHeight="12348" activeTab="2" xr2:uid="{D72F9FF4-5E15-4951-96BE-ADF41DA7590D}"/>
   </bookViews>
   <sheets>
     <sheet name="위험률" sheetId="2" r:id="rId1"/>
@@ -1203,11 +1203,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1223,11 +1222,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1243,6 +1241,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -1253,11 +1260,67 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1300,58 +1363,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1368,22 +1384,6 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1412,6 +1412,319 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1432,29 +1745,20 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="3" tint="-0.249977111117893"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color theme="0"/>
+          <color auto="1"/>
         </left>
         <right style="thin">
-          <color theme="0"/>
+          <color auto="1"/>
         </right>
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1933,9 +2237,77 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1971,378 +2343,6 @@
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2594,107 +2594,106 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B7F1F5D0-4DE6-4E72-AC93-F6658C48A1EB}" name="Tab코드" displayName="Tab코드" ref="A2:S81" totalsRowShown="0" headerRowDxfId="22" dataDxfId="23" headerRowBorderDxfId="43" tableBorderDxfId="74" totalsRowBorderDxfId="73">
-  <autoFilter ref="A2:S81" xr:uid="{B7F1F5D0-4DE6-4E72-AC93-F6658C48A1EB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B7F1F5D0-4DE6-4E72-AC93-F6658C48A1EB}" name="Tab코드" displayName="Tab코드" ref="A2:S81" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{9D22FCD4-1A06-4FE5-8CB0-A8B9FBA821EC}" name="담보코드" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{A71590DE-337B-416C-8A61-571877B6B71D}" name="담보명" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{58684E5D-85D6-412C-B5B6-D2AB0E24A736}" name="sub1" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{39401272-EF91-45F8-897C-F82F47CA11F8}" name="sub2" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{AB30D454-AEEE-4431-8229-B4D94C7090FE}" name="sub3" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{94157587-749D-444D-A28E-485FF6A3746D}" name="sub4" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{4FBB6494-B6DD-4572-826B-1F9198D31338}" name="KEY" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{1255C87A-758E-48FF-85C7-18D04589A5CF}" name="BenefitNum" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{B4236CFF-42DE-4399-86A3-762E3F73E7EF}" name="ExitCode" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{7D8FF776-0077-4A00-9069-0568F1848C62}" name="급부탈퇴율명" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{9D22FCD4-1A06-4FE5-8CB0-A8B9FBA821EC}" name="담보코드" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{A71590DE-337B-416C-8A61-571877B6B71D}" name="담보명" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{58684E5D-85D6-412C-B5B6-D2AB0E24A736}" name="sub1" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{39401272-EF91-45F8-897C-F82F47CA11F8}" name="sub2" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{AB30D454-AEEE-4431-8229-B4D94C7090FE}" name="sub3" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{94157587-749D-444D-A28E-485FF6A3746D}" name="sub4" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{4FBB6494-B6DD-4572-826B-1F9198D31338}" name="KEY" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{1255C87A-758E-48FF-85C7-18D04589A5CF}" name="BenefitNum" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{B4236CFF-42DE-4399-86A3-762E3F73E7EF}" name="ExitCode" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{7D8FF776-0077-4A00-9069-0568F1848C62}" name="급부탈퇴율명" dataDxfId="57">
       <calculatedColumnFormula>IF(I3&lt;&gt;"",VLOOKUP(I3,Tab위험률키[],2,FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{64BC1760-448F-40E8-8108-78C6BDAB135D}" name="NonCov" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{D45BC053-AD35-4C05-80D0-BAEC2E23EEF5}" name="BenefitCode" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{44FAB8E2-26CC-4384-9C4B-2014BE7E2D88}" name="급부지급률명" dataDxfId="30">
+    <tableColumn id="11" xr3:uid="{64BC1760-448F-40E8-8108-78C6BDAB135D}" name="NonCov" dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{D45BC053-AD35-4C05-80D0-BAEC2E23EEF5}" name="BenefitCode" dataDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{44FAB8E2-26CC-4384-9C4B-2014BE7E2D88}" name="급부지급률명" dataDxfId="54">
       <calculatedColumnFormula>IF(L3&lt;&gt;"",VLOOKUP(L3,Tab위험률키[],2,FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F83A889D-725C-46C7-A44D-81751E196ACA}" name="DefryRate" dataDxfId="29"/>
-    <tableColumn id="15" xr3:uid="{5E4B306F-A81B-4B62-B505-2241F618CD01}" name="ReducRate" dataDxfId="28"/>
-    <tableColumn id="16" xr3:uid="{2092426A-FD7D-41EF-922C-9B3EE7C8AC7A}" name="ReducPeriod" dataDxfId="27"/>
-    <tableColumn id="17" xr3:uid="{76CBBE03-1ADF-4CA3-9436-F546C42FA9E5}" name="GrantCode" dataDxfId="26"/>
-    <tableColumn id="18" xr3:uid="{1C60DEE9-23CC-4A72-85E0-52E007CA5F43}" name="납입면제율명" dataDxfId="25">
+    <tableColumn id="14" xr3:uid="{F83A889D-725C-46C7-A44D-81751E196ACA}" name="DefryRate" dataDxfId="53"/>
+    <tableColumn id="15" xr3:uid="{5E4B306F-A81B-4B62-B505-2241F618CD01}" name="ReducRate" dataDxfId="52"/>
+    <tableColumn id="16" xr3:uid="{2092426A-FD7D-41EF-922C-9B3EE7C8AC7A}" name="ReducPeriod" dataDxfId="51"/>
+    <tableColumn id="17" xr3:uid="{76CBBE03-1ADF-4CA3-9436-F546C42FA9E5}" name="GrantCode" dataDxfId="50"/>
+    <tableColumn id="18" xr3:uid="{1C60DEE9-23CC-4A72-85E0-52E007CA5F43}" name="납입면제율명" dataDxfId="49">
       <calculatedColumnFormula>IF(Q3&lt;&gt;"",VLOOKUP(Q3,Tab위험률키[],2,FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{5B264164-6478-4961-9DD5-857114D72711}" name="InvalidPeriod" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{5B264164-6478-4961-9DD5-857114D72711}" name="InvalidPeriod" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DBF9398-8926-4F6B-AF2B-8C06048DEFA9}" name="Tab사업비" displayName="Tab사업비" ref="A2:V22" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DBF9398-8926-4F6B-AF2B-8C06048DEFA9}" name="Tab사업비" displayName="Tab사업비" ref="A2:V22" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
   <autoFilter ref="A2:V22" xr:uid="{7DBF9398-8926-4F6B-AF2B-8C06048DEFA9}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{13148596-B31F-4E58-9A4C-E4D148F8481A}" name="담보코드" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{785FCDAF-C943-448E-9DFC-AD6447DBFCE0}" name="담보명" dataDxfId="67">
+    <tableColumn id="1" xr3:uid="{13148596-B31F-4E58-9A4C-E4D148F8481A}" name="담보코드" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{785FCDAF-C943-448E-9DFC-AD6447DBFCE0}" name="담보명" dataDxfId="42">
       <calculatedColumnFormula>VLOOKUP(Tab사업비[[#This Row],[담보코드]], Tab담보코드[], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{416E59A0-4153-460D-B13A-22E6FF030CA1}" name="sub1" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{59C4C521-4DC6-4B12-AC38-24443BB9E5E2}" name="sub2" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{3B2AF17D-1C19-4485-B658-E2C0A6A0F8A3}" name="sub3" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{AF47197B-729A-44F4-A1C6-D248D7DB70CA}" name="sub4" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{9E823DA5-4365-4E9B-AF17-F8EC4DEF296A}" name="KEY" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{A703487A-2BAB-475B-A29C-331A1C07932A}" name="sex" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{72659132-FDD4-40C4-BB32-06C382F46CE0}" name="x" dataDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{A891BA19-B38D-43D7-A50F-9AD0B4A4DD60}" name="n" dataDxfId="59"/>
-    <tableColumn id="11" xr3:uid="{A76072EF-9951-4AE0-A367-05C7B0B2FC1D}" name="m" dataDxfId="58"/>
-    <tableColumn id="12" xr3:uid="{DB2AB7BB-DB7D-45C5-8F66-FF34D66B32E1}" name="mPrime" dataDxfId="57"/>
-    <tableColumn id="13" xr3:uid="{72B51E86-4A0C-459D-8E1C-D665E1C68554}" name="AMT" dataDxfId="56" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" xr3:uid="{B982487C-ED23-4C18-BF7D-EB776C9E4A02}" name="S" dataDxfId="55"/>
-    <tableColumn id="15" xr3:uid="{64491889-9E0E-46DE-8104-1F3CE15B6C72}" name="alpha1" dataDxfId="54"/>
-    <tableColumn id="16" xr3:uid="{85103BE9-07BB-4E28-861B-0D8F63E6E8E8}" name="alpha2" dataDxfId="53"/>
-    <tableColumn id="17" xr3:uid="{D82A59A3-11AC-4223-B3F9-6C8E9E2481CC}" name="beta1" dataDxfId="52"/>
-    <tableColumn id="18" xr3:uid="{F1868858-CF48-4CC0-B802-D11CEF998600}" name="beta2" dataDxfId="51"/>
-    <tableColumn id="19" xr3:uid="{04E112AD-18EA-49F5-B0C2-4EF1F4148355}" name="betaPrime" dataDxfId="50"/>
-    <tableColumn id="20" xr3:uid="{50D602DB-B005-47DB-AC55-3673E09B6674}" name="beta5" dataDxfId="49"/>
-    <tableColumn id="21" xr3:uid="{078E1488-49B5-4510-8F85-00598F1CCA4E}" name="ce" dataDxfId="48"/>
-    <tableColumn id="22" xr3:uid="{64751DCD-4790-4491-9BC9-93915602C0D4}" name="gamma" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{416E59A0-4153-460D-B13A-22E6FF030CA1}" name="sub1" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{59C4C521-4DC6-4B12-AC38-24443BB9E5E2}" name="sub2" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{3B2AF17D-1C19-4485-B658-E2C0A6A0F8A3}" name="sub3" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{AF47197B-729A-44F4-A1C6-D248D7DB70CA}" name="sub4" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{9E823DA5-4365-4E9B-AF17-F8EC4DEF296A}" name="KEY" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{A703487A-2BAB-475B-A29C-331A1C07932A}" name="sex" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{72659132-FDD4-40C4-BB32-06C382F46CE0}" name="x" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{A891BA19-B38D-43D7-A50F-9AD0B4A4DD60}" name="n" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{A76072EF-9951-4AE0-A367-05C7B0B2FC1D}" name="m" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{DB2AB7BB-DB7D-45C5-8F66-FF34D66B32E1}" name="mPrime" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{72B51E86-4A0C-459D-8E1C-D665E1C68554}" name="AMT" dataDxfId="31" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" xr3:uid="{B982487C-ED23-4C18-BF7D-EB776C9E4A02}" name="S" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{64491889-9E0E-46DE-8104-1F3CE15B6C72}" name="alpha1" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{85103BE9-07BB-4E28-861B-0D8F63E6E8E8}" name="alpha2" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{D82A59A3-11AC-4223-B3F9-6C8E9E2481CC}" name="beta1" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{F1868858-CF48-4CC0-B802-D11CEF998600}" name="beta2" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{04E112AD-18EA-49F5-B0C2-4EF1F4148355}" name="betaPrime" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{50D602DB-B005-47DB-AC55-3673E09B6674}" name="beta5" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{078E1488-49B5-4510-8F85-00598F1CCA4E}" name="ce" dataDxfId="23"/>
+    <tableColumn id="22" xr3:uid="{64751DCD-4790-4491-9BC9-93915602C0D4}" name="gamma" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2A792D8B-4CF6-4D69-9EA6-F6BE4E9AB453}" name="Tab결합위험률" displayName="Tab결합위험률" ref="A2:R21" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2A792D8B-4CF6-4D69-9EA6-F6BE4E9AB453}" name="Tab결합위험률" displayName="Tab결합위험률" ref="A2:R21" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
   <autoFilter ref="A2:R21" xr:uid="{2A792D8B-4CF6-4D69-9EA6-F6BE4E9AB453}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{25EE5C06-7712-458C-A302-DAFF497D3B81}" name="CombRiskKey" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{1A8AC7B3-E7AA-4BEF-8BDE-0B99E9F0D731}" name="Operation" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{1E9C2BA4-AC39-41BC-B97D-08147B1DC114}" name="RiskKey(1)" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{F669CDEF-ECBA-4634-B700-672424864611}" name="RiskName(1)" dataDxfId="7">
+    <tableColumn id="11" xr3:uid="{F669CDEF-ECBA-4634-B700-672424864611}" name="RiskName(1)" dataDxfId="14">
       <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(1)]],Tab위험률키[#Data], 2,FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C56E836D-A16F-436B-91FE-698D089FDA08}" name="RiskKey(2)" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{C17EA131-C25D-483C-B3A3-34A5F64D7993}" name="RiskName(2)" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{C56E836D-A16F-436B-91FE-698D089FDA08}" name="RiskKey(2)" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{C17EA131-C25D-483C-B3A3-34A5F64D7993}" name="RiskName(2)" dataDxfId="12">
       <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(2)]], Tab위험률키[#Data], 2,FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1701CF4F-BE84-42AE-852C-03FDEC7C52F3}" name="RiskKey(3)" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{3EFB201C-1C78-45CD-8010-A405C6862F03}" name="RiskName(3)" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{1701CF4F-BE84-42AE-852C-03FDEC7C52F3}" name="RiskKey(3)" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{3EFB201C-1C78-45CD-8010-A405C6862F03}" name="RiskName(3)" dataDxfId="10">
       <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(3)]], Tab위험률키[#Data], 2,FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B9F8B2E7-EC8D-41BC-A28C-7F390EF63369}" name="RiskKey(4)" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{8765911B-97DF-499F-BF14-73F41DF4B4D1}" name="RiskName(4)" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{B9F8B2E7-EC8D-41BC-A28C-7F390EF63369}" name="RiskKey(4)" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{8765911B-97DF-499F-BF14-73F41DF4B4D1}" name="RiskName(4)" dataDxfId="8">
       <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(4)]],Tab위험률키[#Data], 2,FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F65EE822-96BF-476A-938B-118CE463000F}" name="RiskKey(5)" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{4606DF93-418B-4E5C-AF82-E80E481A1C97}" name="RiskName(5)" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{F65EE822-96BF-476A-938B-118CE463000F}" name="RiskKey(5)" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{4606DF93-418B-4E5C-AF82-E80E481A1C97}" name="RiskName(5)" dataDxfId="6">
       <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(5)]], Tab위험률키[#Data], 2,FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C1AE485E-5574-42C2-8978-1E59840ABC97}" name="RiskKey(6)" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{7FBC4286-A113-4674-80E0-633ABB302A5D}" name="RiskName(6)" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{C1AE485E-5574-42C2-8978-1E59840ABC97}" name="RiskKey(6)" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{7FBC4286-A113-4674-80E0-633ABB302A5D}" name="RiskName(6)" dataDxfId="4">
       <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(6)]], Tab위험률키[#Data], 2,FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{EDA98835-0153-4FEC-B870-F1DA40EC2090}" name="RiskKey(7)" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{E3C48232-93D4-4993-B343-F35BB126B092}" name="RiskName(7)" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{EDA98835-0153-4FEC-B870-F1DA40EC2090}" name="RiskKey(7)" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{E3C48232-93D4-4993-B343-F35BB126B092}" name="RiskName(7)" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(7)]],Tab위험률키[#Data], 2,FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{4D3E2474-4E19-43A2-8666-BAC9CFD43BDA}" name="RiskKey(8)" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{4D3E2474-4E19-43A2-8666-BAC9CFD43BDA}" name="RiskKey(8)" dataDxfId="1"/>
     <tableColumn id="18" xr3:uid="{B70CB1E1-537E-4567-957C-6A7D5F2D5648}" name="RiskName(9)" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(Tab결합위험률[[#This Row],[RiskKey(8)]], Tab위험률키[#Data], 2,FALSE), "")</calculatedColumnFormula>
     </tableColumn>
@@ -14076,11 +14075,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57D3729-4F1D-4584-B205-3768B4FDBAED}">
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -14339,7 +14338,7 @@
         <v>위험률4</v>
       </c>
       <c r="N5" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O5" s="40"/>
       <c r="P5" s="40"/>
@@ -14387,7 +14386,7 @@
         <v>위험률5</v>
       </c>
       <c r="N6" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O6" s="40"/>
       <c r="P6" s="40"/>
@@ -14435,7 +14434,7 @@
         <v>위험률6</v>
       </c>
       <c r="N7" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
@@ -14483,7 +14482,7 @@
         <v>위험률7</v>
       </c>
       <c r="N8" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O8" s="40"/>
       <c r="P8" s="40"/>
@@ -14665,7 +14664,7 @@
         <v>위험률4</v>
       </c>
       <c r="N12" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O12" s="40"/>
       <c r="P12" s="40"/>
@@ -14713,7 +14712,7 @@
         <v>위험률5</v>
       </c>
       <c r="N13" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O13" s="40"/>
       <c r="P13" s="40"/>
@@ -14761,7 +14760,7 @@
         <v>위험률6</v>
       </c>
       <c r="N14" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O14" s="40"/>
       <c r="P14" s="40"/>
@@ -14809,7 +14808,7 @@
         <v>위험률7</v>
       </c>
       <c r="N15" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O15" s="40"/>
       <c r="P15" s="40"/>
@@ -16817,17 +16816,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I3:P81">
-    <cfRule type="expression" dxfId="46" priority="3">
+    <cfRule type="expression" dxfId="74" priority="3">
       <formula>$H3 = 99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:P81">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="73" priority="2">
       <formula>$H3=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:S81">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>$H3&lt;&gt;99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17294,8 +17293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCFAF0C-83A8-4523-B323-D537D5C83601}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
